--- a/medicine/Psychotrope/Olpé/Olpé.xlsx
+++ b/medicine/Psychotrope/Olpé/Olpé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olp%C3%A9</t>
+          <t>Olpé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la Grèce antique, une olpé (en grec ancien ὄλπη / ólpē ; au pluriel ὄλπαι / olpai) est un broc en céramique. Plus petite qu'une œnochoé, elle pouvait contenir du vin ou des onguents.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olp%C3%A9</t>
+          <t>Olpé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,50 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Olpé retrouvée dans la tombe du prince de Lavau, dans le complexe funéraire du Moutot.
 			Olpé du Louvre avec deux protomés affrontés de chevaux (Corinthe, Ve siècle av. J.-C.).
-L'olpé Chigi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olpé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olp%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'olpé Chigi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'olpé Chigi provient d'une tombe en Étrurie et est datée de 640 av. J.-C.
 			Olpé Chigi, 640 avant J.-C. (conservée au Musée national étrusque de la Villa Giulia, à Rome).
 </t>
